--- a/math_of_number/22060古城20251024.xlsx
+++ b/math_of_number/22060古城20251024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kojor_fyn5sjo\2025\math_of_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F160EA-EC05-4206-959B-5C49C7948919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07EE5E-6FDB-48BD-A8CB-FB47627C8BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{E8B18B28-2F25-4215-A895-81194F9CCE6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="12" xr2:uid="{E8B18B28-2F25-4215-A895-81194F9CCE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="P67二分法(例題5.2)" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="84">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -2561,6 +2561,695 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>二分法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ニュートンラプソン法(演習'!$F$2:$F$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ニュートンラプソン法(演習'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8984375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90234375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.904296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F821-4D89-A154-4014D7959619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>挟み撃ち法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ニュートンラプソン法(演習'!$O$2:$O$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ニュートンラプソン法(演習'!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.891675415389242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91149358481607567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90455294937672737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9045568932510909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90455689430210129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90455689430238129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90455689430238129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90455689430238129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90455689430238129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90455689430238129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F821-4D89-A154-4014D7959619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ニュートンラフソン法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ニュートンラプソン法(演習'!$T$2:$T$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ニュートンラプソン法(演習'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90417286987209788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90455690047268877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9045568943023814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9045568943023814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9045568943023814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9045568943023814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9045568943023814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9045568943023814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9045568943023814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F821-4D89-A154-4014D7959619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1984443904"/>
+        <c:axId val="1984461664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1984443904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ステップ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1984461664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1984461664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>近似解</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1984443904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2642,6 +3331,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4216,6 +4945,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4332,6 +5577,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108878C9-92F4-7EC3-7B18-50C9C16282F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4660,7 +5946,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5526,7 +6812,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6130,303 +7416,2702 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46EC8F-38B0-4D88-9D01-64FB67CCC2E1}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="U1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="V1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>SIN(B2)*SIN(B2)-COS(B2)</f>
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>SIN(D2)*SIN(D2)-COS(D2)</f>
+        <v>1.2429686469789485</v>
+      </c>
+      <c r="F2">
+        <f>(B2+D2)/2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SIN(F2)*SIN(F2)-COS(F2)</f>
         <v>0.16777111240543141</v>
       </c>
-      <c r="D2">
-        <f>2*COS(B2)*SIN(B2)+SIN(B2)</f>
+      <c r="H2">
+        <f>C2*G2</f>
+        <v>-0.16777111240543141</v>
+      </c>
+      <c r="I2">
+        <f>ABS(F2-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
+        <v>0.10551365679571434</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SIN(K2)*SIN(K2)-COS(K2)</f>
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f>SIN(M2)*SIN(M2)-COS(M2)</f>
+        <v>1.2429686469789485</v>
+      </c>
+      <c r="O2">
+        <f>(K2*N2-M2*L2)/(N2-L2)</f>
+        <v>0.891675415389242</v>
+      </c>
+      <c r="P2">
+        <f>SIN(O2)*SIN(O2)-COS(O2)</f>
+        <v>-2.2630425410868127E-2</v>
+      </c>
+      <c r="Q2">
+        <f>L2*P2</f>
+        <v>2.2630425410868127E-2</v>
+      </c>
+      <c r="R2">
+        <f>ABS(O2-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
+        <v>1.4240650858201498E-2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>SIN(T2)*SIN(T2)-COS(T2)</f>
+        <v>0.16777111240543141</v>
+      </c>
+      <c r="V2">
+        <f>2*COS(T2)*SIN(T2)+SIN(T2)</f>
         <v>1.7507684116335782</v>
       </c>
-      <c r="E2">
-        <f>ABS(B2-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
+      <c r="W2">
+        <f>ABS(T2-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
         <v>0.10551365679571434</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <f>B2-C2/D2</f>
+        <f>F2</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>G2</f>
+        <v>0.16777111240543141</v>
+      </c>
+      <c r="D3">
+        <f>IF(H2&lt;0,B2,D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>SIN(D3)*SIN(D3)-COS(D3)</f>
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <f>(B3+D3)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f>SIN(F3)*SIN(F3)-COS(F3)</f>
+        <v>-0.64773371482444264</v>
+      </c>
+      <c r="H3">
+        <f>C3*G3</f>
+        <v>-0.10867100587859922</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I36" si="0">ABS(F3-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
+        <v>0.44724317160214283</v>
+      </c>
+      <c r="K3">
+        <f>O2</f>
+        <v>0.891675415389242</v>
+      </c>
+      <c r="L3">
+        <f>P2</f>
+        <v>-2.2630425410868127E-2</v>
+      </c>
+      <c r="M3">
+        <f>IF(Q2&lt;0,K2,M2)</f>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>SIN(M3)*SIN(M3)-COS(M3)</f>
+        <v>1.2429686469789485</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O36" si="1">(K3*N3-M3*L3)/(N3-L3)</f>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="P3">
+        <f>SIN(O3)*SIN(O3)-COS(O3)</f>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="Q3">
+        <f>L3*P3</f>
+        <v>-2.7602725378942375E-4</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R36" si="2">ABS(O3-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
+        <v>7.6686060958544248E-3</v>
+      </c>
+      <c r="T3">
+        <f>T2-U2/V2</f>
         <v>0.90417286987209788</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">SIN(B3)*SIN(B3)-COS(B3)</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U14" si="3">SIN(T3)*SIN(T3)-COS(T3)</f>
         <v>-6.7506110521875495E-4</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D14" si="1">2*COS(B3)*SIN(B3)+SIN(B3)</f>
+      <c r="V3">
+        <f t="shared" ref="V3:V14" si="4">2*COS(T3)*SIN(T3)+SIN(T3)</f>
         <v>1.7578315482674696</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E14" si="2">ABS(B3-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
+      <c r="W3">
+        <f t="shared" ref="W3:W14" si="5">ABS(T3-ACOS((SQRT(5)-1)/2))/ACOS((SQRT(5)-1)/2)</f>
         <v>4.2454425222149554E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B14" si="3">B3-C3/D3</f>
+        <f t="shared" ref="B4:C36" si="6">F3</f>
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="6"/>
+        <v>-0.64773371482444264</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D36" si="7">IF(H3&lt;0,B3,D3)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E36" si="8">SIN(D4)*SIN(D4)-COS(D4)</f>
+        <v>0.16777111240543141</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F36" si="9">(B4+D4)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G36" si="10">SIN(F4)*SIN(F4)-COS(F4)</f>
+        <v>-0.26705746970767241</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H36" si="11">C4*G4</f>
+        <v>0.17298212692536671</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.17086475740321425</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:L36" si="12">O3</f>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="12"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M36" si="13">IF(Q3&lt;0,K3,M3)</f>
+        <v>0.891675415389242</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N36" si="14">SIN(M4)*SIN(M4)-COS(M4)</f>
+        <v>-2.2630425410868127E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0.90455294937672737</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P36" si="15">SIN(O4)*SIN(O4)-COS(O4)</f>
+        <v>-6.9347360222016263E-6</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q36" si="16">L4*P4</f>
+        <v>-8.4584187226265544E-8</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>4.3611691854527114E-6</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T14" si="17">T3-U3/V3</f>
         <v>0.90455690047268877</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="U4">
+        <f t="shared" si="3"/>
         <v>1.0846708864420407E-8</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
+      <c r="V4">
+        <f t="shared" si="4"/>
         <v>1.75788792217095</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
+      <c r="W4">
+        <f t="shared" si="5"/>
         <v>6.8213591937001435E-9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="6"/>
+        <v>-0.26705746970767241</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="8"/>
+        <v>0.16777111240543141</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="10"/>
+        <v>-5.1873830338578952E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="11"/>
+        <v>1.3853293874265987E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.2675550303749953E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="12"/>
+        <v>0.90455294937672737</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="12"/>
+        <v>-6.9347360222016263E-6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.9045568932510909</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="15"/>
+        <v>-1.848050934505352E-9</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="16"/>
+        <v>1.2815745386377642E-14</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>1.1622158812767576E-9</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
+      <c r="W5">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="6"/>
+        <v>-5.1873830338578952E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="8"/>
+        <v>0.16777111240543141</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>0.9375</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="10"/>
+        <v>5.7961678002309558E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="11"/>
+        <v>-3.00669425083115E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3.6419053245982193E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="12"/>
+        <v>0.9045568932510909</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="12"/>
+        <v>-1.848050934505352E-9</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.90455689430210129</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="15"/>
+        <v>-4.9238391142125693E-13</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="16"/>
+        <v>9.099505476374543E-22</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>3.0954188572782556E-13</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
+      <c r="W6">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="6"/>
+        <v>5.7961678002309558E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="8"/>
+        <v>-5.1873830338578952E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="9"/>
+        <v>0.90625</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="10"/>
+        <v>2.9764953917488235E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>1.7252266747190355E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.8717514711161225E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="12"/>
+        <v>0.90455689430210129</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="12"/>
+        <v>-4.9238391142125693E-13</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
+      <c r="W7">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
+        <f t="shared" si="6"/>
+        <v>0.90625</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="6"/>
+        <v>2.9764953917488235E-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="8"/>
+        <v>-5.1873830338578952E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>0.890625</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="10"/>
+        <v>-2.4474441432024707E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="11"/>
+        <v>-7.2848062138048021E-5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.5401899416316913E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
+      <c r="W8">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
+        <f t="shared" si="6"/>
+        <v>0.890625</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="6"/>
+        <v>-2.4474441432024707E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="7"/>
+        <v>0.90625</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="8"/>
+        <v>2.9764953917488235E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>0.8984375</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="10"/>
+        <v>-1.0754299060099948E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="11"/>
+        <v>2.6320546248889454E-4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>6.765073972600396E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
+      <c r="W9">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
+        <f t="shared" si="6"/>
+        <v>0.8984375</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="6"/>
+        <v>-1.0754299060099948E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="7"/>
+        <v>0.90625</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>2.9764953917488235E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>0.90234375</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="10"/>
+        <v>-3.8900938883479341E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="11"/>
+        <v>4.183523304716074E-5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>2.4466612507421368E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
+      <c r="W10">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
+        <f t="shared" si="6"/>
+        <v>0.90234375</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="6"/>
+        <v>-3.8900938883479341E-3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="7"/>
+        <v>0.90625</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="8"/>
+        <v>2.9764953917488235E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>0.904296875</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="10"/>
+        <v>-4.5707984517528999E-4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="11"/>
+        <v>1.7780835122034155E-6</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>2.8745488981300705E-4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
+      <c r="W11">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
+        <f t="shared" si="6"/>
+        <v>0.904296875</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="6"/>
+        <v>-4.5707984517528999E-4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="7"/>
+        <v>0.90625</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="8"/>
+        <v>2.9764953917488235E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="9"/>
+        <v>0.9052734375</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="10"/>
+        <v>1.2596398001561981E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="11"/>
+        <v>-5.7575596483202827E-7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>7.9214829065155773E-4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
+      <c r="W12">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
+        <f t="shared" si="6"/>
+        <v>0.9052734375</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="6"/>
+        <v>1.2596398001561981E-3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="7"/>
+        <v>0.904296875</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>-4.5707984517528999E-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>0.90478515625</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="10"/>
+        <v>4.0126271224183441E-4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="11"/>
+        <v>5.0544648265843832E-7</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>2.5234670041927534E-4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
         <v>1.7578879212707146</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
+      <c r="W13">
+        <f t="shared" si="5"/>
         <v>1.2273667158121553E-16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
+        <f t="shared" si="6"/>
+        <v>0.90478515625</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="6"/>
+        <v>4.0126271224183441E-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="7"/>
+        <v>0.904296875</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="8"/>
+        <v>-4.5707984517528999E-4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>0.904541015625</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="10"/>
+        <v>-2.7912916778394248E-5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="11"/>
+        <v>-1.1200412693079083E-8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.7554094696865876E-5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="17"/>
+        <v>0.9045568943023814</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="3"/>
-        <v>0.9045568943023814</v>
-      </c>
-      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>1.7578879212707146</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="5"/>
+        <v>1.2273667158121553E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="6"/>
+        <v>0.904541015625</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="6"/>
+        <v>-2.7912916778394248E-5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="7"/>
+        <v>0.90478515625</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>4.0126271224183441E-4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>0.9046630859375</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="10"/>
+        <v>1.8667381440384823E-4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="11"/>
+        <v>-5.2106106461600293E-9</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
+        <v>1.1739630286120473E-4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="1"/>
-        <v>1.7578879212707146</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>1.2273667158121553E-16</v>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="6"/>
+        <v>0.9046630859375</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="6"/>
+        <v>1.8667381440384823E-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>0.904541015625</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="8"/>
+        <v>-2.7912916778394248E-5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>0.90460205078125</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="10"/>
+        <v>7.938017744957282E-5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="11"/>
+        <v>1.4818200512566095E-8</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4.9921104082169423E-5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>0.90460205078125</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="6"/>
+        <v>7.938017744957282E-5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>0.904541015625</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>-2.7912916778394248E-5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>0.904571533203125</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="10"/>
+        <v>2.5733562428298384E-5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="11"/>
+        <v>2.0427347519679858E-9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.6183504692651773E-5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>0.904571533203125</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>2.5733562428298384E-5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="7"/>
+        <v>0.904541015625</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="8"/>
+        <v>-2.7912916778394248E-5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>0.9045562744140625</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="10"/>
+        <v>-1.0896941602389631E-6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>-2.8041712700261542E-11</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6.8529500210705184E-7</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="6"/>
+        <v>0.9045562744140625</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="6"/>
+        <v>-1.0896941602389631E-6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>0.904571533203125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>2.5733562428298384E-5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="9"/>
+        <v>0.90456390380859375</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="10"/>
+        <v>1.2321929888647887E-5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="11"/>
+        <v>-1.3427135042533539E-11</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>7.7491048452723598E-6</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="6"/>
+        <v>0.90456390380859375</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>1.2321929888647887E-5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="7"/>
+        <v>0.9045562744140625</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>-1.0896941602389631E-6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>0.90456008911132813</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="10"/>
+        <v>5.6161168028312503E-6</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="11"/>
+        <v>6.9201397490943988E-11</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>3.5319049215826545E-6</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="6"/>
+        <v>0.90456008911132813</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="6"/>
+        <v>5.6161168028312503E-6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>0.9045562744140625</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>-1.0896941602389631E-6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>0.90455818176269531</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="10"/>
+        <v>2.2632110560083518E-6</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="11"/>
+        <v>1.2710457640001963E-11</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1.4233049597378014E-6</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="6"/>
+        <v>0.90455818176269531</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="6"/>
+        <v>2.2632110560083518E-6</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>0.9045562744140625</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>-1.0896941602389631E-6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>0.90455722808837891</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>5.8675838154886861E-7</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="11"/>
+        <v>1.3279580563269664E-12</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>3.6900497881537471E-7</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>0.90455722808837891</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="6"/>
+        <v>5.8675838154886861E-7</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>0.9045562744140625</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>-1.0896941602389631E-6</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>0.9045567512512207</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>-2.5146790594288149E-7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="11"/>
+        <v>-1.4755090150252827E-13</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1.5814501164583857E-7</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="6"/>
+        <v>0.9045567512512207</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="6"/>
+        <v>-2.5146790594288149E-7</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="7"/>
+        <v>0.90455722808837891</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="8"/>
+        <v>5.8675838154886861E-7</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="9"/>
+        <v>0.9045569896697998</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="10"/>
+        <v>1.6764523358414607E-7</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="11"/>
+        <v>-4.2157395830710439E-14</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1.0542998358476807E-7</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="6"/>
+        <v>0.9045569896697998</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="6"/>
+        <v>1.6764523358414607E-7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>0.9045567512512207</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="8"/>
+        <v>-2.5146790594288149E-7</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="9"/>
+        <v>0.90455687046051025</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="10"/>
+        <v>-4.1911337178568431E-8</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>-7.0262359111250098E-15</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>2.6357514030535244E-8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="6"/>
+        <v>0.90455687046051025</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="6"/>
+        <v>-4.1911337178568431E-8</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="7"/>
+        <v>0.9045569896697998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>1.6764523358414607E-7</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="9"/>
+        <v>0.90455693006515503</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="10"/>
+        <v>6.2866947980744214E-8</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>-2.6348378542084925E-15</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>3.9536234777116412E-8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>0.90455693006515503</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>6.2866947980744214E-8</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="7"/>
+        <v>0.90455687046051025</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>-4.1911337178568431E-8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>0.90455690026283264</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>1.0477805401087892E-8</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>6.5870764710255328E-16</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>6.5893603732905847E-9</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>0.90455690026283264</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>1.0477805401087892E-8</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>0.90455687046051025</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>-4.1911337178568431E-8</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="9"/>
+        <v>0.90455688536167145</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="10"/>
+        <v>-1.5716765888740269E-8</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="11"/>
+        <v>-1.6467721451667674E-16</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>9.8840768286223292E-9</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>0.90455688536167145</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>-1.5716765888740269E-8</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>0.90455690026283264</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>1.0477805401087892E-8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="9"/>
+        <v>0.90455689281225204</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="10"/>
+        <v>-2.6194802993373401E-9</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>4.1169758614852257E-17</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1.6473582276658725E-9</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>0.90455689281225204</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>-2.6194802993373401E-9</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>0.90455690026283264</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>1.0477805401087892E-8</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="9"/>
+        <v>0.90455689653754234</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>3.9291624398529734E-9</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="11"/>
+        <v>-1.02923636040911E-17</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>2.4710010728123564E-9</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>0.90455689653754234</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>3.9291624398529734E-9</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>0.90455689281225204</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>-2.6194802993373401E-9</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="9"/>
+        <v>0.90455689467489719</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="10"/>
+        <v>6.5484107025781668E-10</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="11"/>
+        <v>2.5729769373301354E-18</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>4.1182142257324199E-10</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>0.90455689467489719</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>6.5484107025781668E-10</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>0.90455689281225204</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>-2.6194802993373401E-9</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="9"/>
+        <v>0.90455689374357462</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="10"/>
+        <v>-9.8231955902861046E-10</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>-6.432631913694818E-19</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>6.1776840254631518E-10</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="6"/>
+        <v>0.90455689374357462</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>-9.8231955902861046E-10</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>0.90455689467489719</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>6.5484107025781668E-10</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="9"/>
+        <v>0.90455689420923591</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>-1.6373935540769935E-10</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="11"/>
+        <v>1.6084437139972015E-19</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1.0297348998653662E-10</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="6"/>
+        <v>0.90455689420923591</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>-1.6373935540769935E-10</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>0.90455689467489719</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="8"/>
+        <v>6.5484107025781668E-10</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="9"/>
+        <v>0.90455689444206655</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="10"/>
+        <v>2.4555080191390743E-10</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>-4.0206330025226871E-20</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1.5442396629335267E-10</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>0.90455689444206655</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>2.4555080191390743E-10</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>0.90455689420923591</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="8"/>
+        <v>-1.6373935540769935E-10</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>0.90455689432565123</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="10"/>
+        <v>4.0905834275406505E-11</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>1.0044460409283468E-20</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>2.572523815340803E-11</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>0.90455689432565123</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="6"/>
+        <v>4.0905834275406505E-11</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>0.90455689420923591</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>-1.6373935540769935E-10</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="9"/>
+        <v>0.90455689426744357</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="10"/>
+        <v>-6.1416760566146422E-11</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>-2.512303829451107E-21</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>3.8624125916564297E-11</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="12"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="13"/>
+        <v>0.91149358481607567</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="14"/>
+        <v>1.219717476706661E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0.90455689430238129</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6995,8 +10680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C310DBDD-B1EE-456F-AD69-B543B90BD770}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9456,8 +13141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A3ADF0-C33F-4CB0-9491-58FD7CD7F9E7}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18707,8 +22392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92AF8B1-C53F-4B6D-85E0-91E6D5E12393}">
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
